--- a/Activity 2_Scheduling.xlsx
+++ b/Activity 2_Scheduling.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexVargas/Documents/ITESM/Quinto semestre/Operating Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E640A8-FC35-7242-9EF2-69FE9C1CC51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FB538-3573-3D43-8BED-58E782A1F294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{7FB603DB-D85C-3449-B825-6483D7D6011F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20640" activeTab="1" xr2:uid="{7FB603DB-D85C-3449-B825-6483D7D6011F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FCFS</t>
   </si>
@@ -52,13 +53,43 @@
   </si>
   <si>
     <t>RR 4</t>
+  </si>
+  <si>
+    <t>RR  4</t>
+  </si>
+  <si>
+    <t>Ready Q</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>3,1,2</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>2,4,3</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>In conclusion we can see the best algorithm for scenario 1 is the Shortest Remaining Job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,8 +104,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +128,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,13 +189,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E988D5-2497-A744-BC37-0B169FD7245A}">
-  <dimension ref="A2:AJ31"/>
+  <dimension ref="A2:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -470,96 +545,129 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D4" s="1">
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="31" x14ac:dyDescent="0.35">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="12">
         <v>0</v>
       </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="12">
         <v>0</v>
       </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="12">
         <v>9</v>
       </c>
+      <c r="I6" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>12</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="12">
         <v>12</v>
       </c>
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="12">
         <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -571,9 +679,13 @@
         <f>AVERAGE(G4:G8)</f>
         <v>7.2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <f>AVERAGE(H4:H8)</f>
         <v>5.6</v>
+      </c>
+      <c r="I9" s="2">
+        <f>AVERAGE(I4:I8)</f>
+        <v>9.6</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -987,7 +1099,255 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2">
+        <v>7</v>
+      </c>
+      <c r="K32" s="2">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2">
+        <v>9</v>
+      </c>
+      <c r="M32" s="2">
+        <v>10</v>
+      </c>
+      <c r="N32" s="2">
+        <v>11</v>
+      </c>
+      <c r="O32" s="2">
+        <v>12</v>
+      </c>
+      <c r="P32" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>14</v>
+      </c>
+      <c r="R32" s="2">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2">
+        <v>16</v>
+      </c>
+      <c r="T32" s="2">
+        <v>17</v>
+      </c>
+      <c r="U32" s="2">
+        <v>18</v>
+      </c>
+      <c r="V32" s="2">
+        <v>19</v>
+      </c>
+      <c r="W32" s="2">
+        <v>20</v>
+      </c>
+      <c r="X32" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE6516E-D35F-E143-9856-C880287D9461}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Activity 2_Scheduling.xlsx
+++ b/Activity 2_Scheduling.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexVargas/Documents/ITESM/Quinto semestre/Operating Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FB538-3573-3D43-8BED-58E782A1F294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B29109B-280E-044E-92B0-BD6CF7379573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20640" activeTab="1" xr2:uid="{7FB603DB-D85C-3449-B825-6483D7D6011F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{7FB603DB-D85C-3449-B825-6483D7D6011F}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>FCFS</t>
   </si>
@@ -83,13 +84,67 @@
   </si>
   <si>
     <t>In conclusion we can see the best algorithm for scenario 1 is the Shortest Remaining Job</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>FCFS WT</t>
+  </si>
+  <si>
+    <t>SJF</t>
+  </si>
+  <si>
+    <t>SJF WT</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>RR WT</t>
+  </si>
+  <si>
+    <t>In conclusion we can see the best algorithm for scenario 2 is the Round Robin with Quantum = 4</t>
+  </si>
+  <si>
+    <t>Alex Vargas A00824525</t>
+  </si>
+  <si>
+    <t>Cesar Martinez A00517067</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrival </t>
+  </si>
+  <si>
+    <t>AWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burst </t>
+  </si>
+  <si>
+    <t>RR 3</t>
+  </si>
+  <si>
+    <t>q0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +161,15 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +267,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +591,7 @@
   <dimension ref="A2:AJ39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -687,6 +758,20 @@
         <f>AVERAGE(I4:I8)</f>
         <v>9.6</v>
       </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AD10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AD11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1342,12 +1427,1377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE6516E-D35F-E143-9856-C880287D9461}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10:AF11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="31" x14ac:dyDescent="0.35">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <f>AVERAGE(H4:H8)</f>
+        <v>8.4</v>
+      </c>
+      <c r="I9" s="2">
+        <f>AVERAGE(I4:I8)</f>
+        <v>8.4</v>
+      </c>
+      <c r="J9" s="4">
+        <f>AVERAGE(J4:J8)</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AD10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AD11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2">
+        <v>12</v>
+      </c>
+      <c r="P14" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2">
+        <v>16</v>
+      </c>
+      <c r="T14" s="2">
+        <v>17</v>
+      </c>
+      <c r="U14" s="2">
+        <v>18</v>
+      </c>
+      <c r="V14" s="2">
+        <v>19</v>
+      </c>
+      <c r="W14" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9</v>
+      </c>
+      <c r="M23" s="2">
+        <v>10</v>
+      </c>
+      <c r="N23" s="2">
+        <v>11</v>
+      </c>
+      <c r="O23" s="2">
+        <v>12</v>
+      </c>
+      <c r="P23" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>14</v>
+      </c>
+      <c r="R23" s="2">
+        <v>15</v>
+      </c>
+      <c r="S23" s="2">
+        <v>16</v>
+      </c>
+      <c r="T23" s="2">
+        <v>17</v>
+      </c>
+      <c r="U23" s="2">
+        <v>18</v>
+      </c>
+      <c r="V23" s="2">
+        <v>19</v>
+      </c>
+      <c r="W23" s="2">
+        <v>20</v>
+      </c>
+      <c r="X23" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2">
+        <v>7</v>
+      </c>
+      <c r="K32" s="2">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2">
+        <v>9</v>
+      </c>
+      <c r="M32" s="2">
+        <v>10</v>
+      </c>
+      <c r="N32" s="2">
+        <v>11</v>
+      </c>
+      <c r="O32" s="2">
+        <v>12</v>
+      </c>
+      <c r="P32" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>14</v>
+      </c>
+      <c r="R32" s="2">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2">
+        <v>16</v>
+      </c>
+      <c r="T32" s="2">
+        <v>17</v>
+      </c>
+      <c r="U32" s="2">
+        <v>18</v>
+      </c>
+      <c r="V32" s="2">
+        <v>19</v>
+      </c>
+      <c r="W32" s="2">
+        <v>20</v>
+      </c>
+      <c r="X32" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="2">
+        <v>5</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4</v>
+      </c>
+      <c r="O41" s="2">
+        <v>4</v>
+      </c>
+      <c r="R41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B2E13-78D5-B64E-9E82-9FC0F1335903}">
+  <dimension ref="A3:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E7" s="16">
+        <f>AVERAGE(E4:E6)</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>AVERAGE(F17:F19)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>